--- a/result.xlsx
+++ b/result.xlsx
@@ -397,332 +397,720 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>文字</v>
+        <v>翁旻醇</v>
       </c>
       <c r="B1" t="str">
-        <v>解答部分</v>
-      </c>
-      <c r="C1" t="str">
-        <v>輸入部分</v>
-      </c>
-      <c r="D1" t="str">
-        <v>C.竹火白</v>
-      </c>
-      <c r="E1" t="str">
-        <v>T.竹火白</v>
-      </c>
-      <c r="F1" t="str">
-        <v>1.R.竹.1</v>
-      </c>
-      <c r="G1" t="str">
-        <v>1.C.竹.1</v>
-      </c>
-      <c r="H1" t="str">
-        <v>1.T.竹.1</v>
-      </c>
-      <c r="I1" t="str">
-        <v>1.R.火.1</v>
-      </c>
-      <c r="J1" t="str">
-        <v>1.C.火.1</v>
-      </c>
-      <c r="K1" t="str">
-        <v>1.T.火.1</v>
-      </c>
-      <c r="L1" t="str">
-        <v>1.R.白.1</v>
-      </c>
-      <c r="M1" t="str">
-        <v>1.C.白.1</v>
-      </c>
-      <c r="N1" t="str">
-        <v>1.T.白.1</v>
-      </c>
-      <c r="O1" t="str">
-        <v>{Back}</v>
-      </c>
-      <c r="P1" t="str">
-        <v>1.R.白.2</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>1.C.白.2</v>
-      </c>
-      <c r="R1" t="str">
-        <v>1.T.白.2</v>
-      </c>
-      <c r="S1" t="str">
-        <v>1.R.{Enter}.{Enter}</v>
-      </c>
-      <c r="T1" t="str">
-        <v>1.C.{Enter}.{Enter}</v>
-      </c>
-      <c r="U1" t="str">
-        <v>1.T.{Enter}.{Enter}</v>
+        <v>2024.04.06</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>你</v>
+        <v>是否啟用虛擬鍵盤</v>
       </c>
       <c r="B2" t="str">
-        <v>竹火白</v>
+        <v>字幕模式</v>
       </c>
       <c r="C2" t="str">
-        <v>系路金</v>
-      </c>
-      <c r="D2" t="str">
-        <v>錯</v>
-      </c>
-      <c r="E2">
-        <v>5.181</v>
-      </c>
-      <c r="F2" t="str">
-        <v>系</v>
-      </c>
-      <c r="G2" t="str">
-        <v>錯</v>
-      </c>
-      <c r="H2">
-        <v>1.012</v>
-      </c>
-      <c r="I2" t="str">
-        <v>路</v>
-      </c>
-      <c r="J2" t="str">
-        <v>錯</v>
-      </c>
-      <c r="K2">
-        <v>1.316</v>
-      </c>
-      <c r="L2" t="str">
-        <v>路</v>
-      </c>
-      <c r="M2" t="str">
-        <v>錯</v>
-      </c>
-      <c r="N2">
-        <v>0.516</v>
-      </c>
-      <c r="O2" t="str">
-        <v>{Back}</v>
-      </c>
-      <c r="P2" t="str">
-        <v>金</v>
-      </c>
-      <c r="Q2" t="str">
-        <v>錯</v>
-      </c>
-      <c r="R2">
-        <v>1.017</v>
+        <v>最大輸入錯誤次數</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>文字</v>
+        <v>否</v>
       </c>
       <c r="B3" t="str">
-        <v>解答部分</v>
-      </c>
-      <c r="C3" t="str">
-        <v>輸入部分</v>
-      </c>
-      <c r="D3" t="str">
-        <v>C.口人白</v>
-      </c>
-      <c r="E3" t="str">
-        <v>T.口人白</v>
-      </c>
-      <c r="F3" t="str">
-        <v>2.R.口.1</v>
-      </c>
-      <c r="G3" t="str">
-        <v>2.C.口.1</v>
-      </c>
-      <c r="H3" t="str">
-        <v>2.T.口.1</v>
-      </c>
-      <c r="I3" t="str">
-        <v>{Back}</v>
-      </c>
-      <c r="J3" t="str">
-        <v>2.R.口.2</v>
-      </c>
-      <c r="K3" t="str">
-        <v>2.C.口.2</v>
-      </c>
-      <c r="L3" t="str">
-        <v>2.T.口.2</v>
-      </c>
-      <c r="M3" t="str">
-        <v>{Back}</v>
-      </c>
-      <c r="N3" t="str">
-        <v>2.R.口.3</v>
-      </c>
-      <c r="O3" t="str">
-        <v>2.C.口.3</v>
-      </c>
-      <c r="P3" t="str">
-        <v>2.T.口.3</v>
-      </c>
-      <c r="Q3" t="str">
-        <v>2.R.人.1</v>
-      </c>
-      <c r="R3" t="str">
-        <v>2.C.人.1</v>
-      </c>
-      <c r="S3" t="str">
-        <v>2.T.人.1</v>
-      </c>
-      <c r="T3" t="str">
-        <v>2.R.白.1</v>
-      </c>
-      <c r="U3" t="str">
-        <v>2.C.白.1</v>
-      </c>
-      <c r="V3" t="str">
-        <v>2.T.白.1</v>
-      </c>
-      <c r="W3" t="str">
-        <v>2.R.{Enter}.{Enter}</v>
-      </c>
-      <c r="X3" t="str">
-        <v>2.C.{Enter}.{Enter}</v>
-      </c>
-      <c r="Y3" t="str">
-        <v>2.T.{Enter}.{Enter}</v>
+        <v>顯示剩下字幕</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>好</v>
+        <v>總字數</v>
       </c>
       <c r="B4" t="str">
-        <v>口人白</v>
+        <v>答題數</v>
       </c>
       <c r="C4" t="str">
-        <v>鄉</v>
+        <v>答對數</v>
       </c>
       <c r="D4" t="str">
+        <v>打錯數</v>
+      </c>
+      <c r="E4" t="str">
+        <v>正確率</v>
+      </c>
+      <c r="F4" t="str">
+        <v>輸入法</v>
+      </c>
+      <c r="G4" t="str">
+        <v>模式</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5" t="str">
+        <v>0.0%</v>
+      </c>
+      <c r="F5" t="str">
+        <v>英文輸入法</v>
+      </c>
+      <c r="G5" t="str">
+        <v>單字模式</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>文字</v>
+      </c>
+      <c r="B7" t="str">
+        <v>解答部分</v>
+      </c>
+      <c r="C7" t="str">
+        <v>輸入部分</v>
+      </c>
+      <c r="D7" t="str">
+        <v>C.Today</v>
+      </c>
+      <c r="E7" t="str">
+        <v>T.Today</v>
+      </c>
+      <c r="F7" t="str">
+        <v>1.R.T.1</v>
+      </c>
+      <c r="G7" t="str">
+        <v>1.C.T.1</v>
+      </c>
+      <c r="H7" t="str">
+        <v>1.T.T.1</v>
+      </c>
+      <c r="I7" t="str">
+        <v>1.R.o.1</v>
+      </c>
+      <c r="J7" t="str">
+        <v>1.C.o.1</v>
+      </c>
+      <c r="K7" t="str">
+        <v>1.T.o.1</v>
+      </c>
+      <c r="L7" t="str">
+        <v>1.R.d.1</v>
+      </c>
+      <c r="M7" t="str">
+        <v>1.C.d.1</v>
+      </c>
+      <c r="N7" t="str">
+        <v>1.T.d.1</v>
+      </c>
+      <c r="O7" t="str">
+        <v>1.R.a.1</v>
+      </c>
+      <c r="P7" t="str">
+        <v>1.C.a.1</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>1.T.a.1</v>
+      </c>
+      <c r="R7" t="str">
+        <v>1.R.y.1</v>
+      </c>
+      <c r="S7" t="str">
+        <v>1.C.y.1</v>
+      </c>
+      <c r="T7" t="str">
+        <v>1.T.y.1</v>
+      </c>
+      <c r="U7" t="str">
+        <v>1.R.{Enter}.{Enter}</v>
+      </c>
+      <c r="V7" t="str">
+        <v>1.C.{Enter}.{Enter}</v>
+      </c>
+      <c r="W7" t="str">
+        <v>1.T.{Enter}.{Enter}</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Today</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Today</v>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
         <v>錯</v>
       </c>
-      <c r="E4">
-        <v>3.415</v>
-      </c>
-      <c r="F4" t="str">
-        <v>金</v>
-      </c>
-      <c r="G4" t="str">
+      <c r="E8">
+        <v>0.428</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>文字</v>
+      </c>
+      <c r="B9" t="str">
+        <v>解答部分</v>
+      </c>
+      <c r="C9" t="str">
+        <v>輸入部分</v>
+      </c>
+      <c r="D9" t="str">
+        <v>C.is</v>
+      </c>
+      <c r="E9" t="str">
+        <v>T.is</v>
+      </c>
+      <c r="F9" t="str">
+        <v>2.R.i.1</v>
+      </c>
+      <c r="G9" t="str">
+        <v>2.C.i.1</v>
+      </c>
+      <c r="H9" t="str">
+        <v>2.T.i.1</v>
+      </c>
+      <c r="I9" t="str">
+        <v>2.R.s.1</v>
+      </c>
+      <c r="J9" t="str">
+        <v>2.C.s.1</v>
+      </c>
+      <c r="K9" t="str">
+        <v>2.T.s.1</v>
+      </c>
+      <c r="L9" t="str">
+        <v>2.R.{Enter}.{Enter}</v>
+      </c>
+      <c r="M9" t="str">
+        <v>2.C.{Enter}.{Enter}</v>
+      </c>
+      <c r="N9" t="str">
+        <v>2.T.{Enter}.{Enter}</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>is</v>
+      </c>
+      <c r="B10" t="str">
+        <v>is</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
         <v>錯</v>
       </c>
-      <c r="H4">
-        <v>1.012</v>
-      </c>
-      <c r="I4" t="str">
-        <v>{Back}</v>
-      </c>
-      <c r="J4" t="str">
-        <v>鎮</v>
-      </c>
-      <c r="K4" t="str">
+      <c r="E10">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>文字</v>
+      </c>
+      <c r="B11" t="str">
+        <v>解答部分</v>
+      </c>
+      <c r="C11" t="str">
+        <v>輸入部分</v>
+      </c>
+      <c r="D11" t="str">
+        <v>C.a</v>
+      </c>
+      <c r="E11" t="str">
+        <v>T.a</v>
+      </c>
+      <c r="F11" t="str">
+        <v>3.R.a.1</v>
+      </c>
+      <c r="G11" t="str">
+        <v>3.C.a.1</v>
+      </c>
+      <c r="H11" t="str">
+        <v>3.T.a.1</v>
+      </c>
+      <c r="I11" t="str">
+        <v>3.R.{Enter}.{Enter}</v>
+      </c>
+      <c r="J11" t="str">
+        <v>3.C.{Enter}.{Enter}</v>
+      </c>
+      <c r="K11" t="str">
+        <v>3.T.{Enter}.{Enter}</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>a</v>
+      </c>
+      <c r="B12" t="str">
+        <v>a</v>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
         <v>錯</v>
       </c>
-      <c r="L4">
-        <v>0.396</v>
-      </c>
-      <c r="M4" t="str">
-        <v>{Back}</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
+      <c r="E12">
+        <v>0.142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
         <v>文字</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B13" t="str">
         <v>解答部分</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C13" t="str">
         <v>輸入部分</v>
       </c>
-      <c r="D5" t="str">
-        <v>C.土言弓</v>
-      </c>
-      <c r="E5" t="str">
-        <v>T.土言弓</v>
-      </c>
-      <c r="F5" t="str">
-        <v>3.R.土.1</v>
-      </c>
-      <c r="G5" t="str">
-        <v>3.C.土.1</v>
-      </c>
-      <c r="H5" t="str">
-        <v>3.T.土.1</v>
-      </c>
-      <c r="I5" t="str">
-        <v>3.R.言.1</v>
-      </c>
-      <c r="J5" t="str">
-        <v>3.C.言.1</v>
-      </c>
-      <c r="K5" t="str">
-        <v>3.T.言.1</v>
-      </c>
-      <c r="L5" t="str">
-        <v>3.R.弓.1</v>
-      </c>
-      <c r="M5" t="str">
-        <v>3.C.弓.1</v>
-      </c>
-      <c r="N5" t="str">
-        <v>3.T.弓.1</v>
-      </c>
-      <c r="O5" t="str">
-        <v>3.R.{Enter}.{Enter}</v>
-      </c>
-      <c r="P5" t="str">
-        <v>3.C.{Enter}.{Enter}</v>
-      </c>
-      <c r="Q5" t="str">
-        <v>3.T.{Enter}.{Enter}</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>嗎</v>
-      </c>
-      <c r="B6" t="str">
-        <v>土言弓</v>
-      </c>
-      <c r="C6" t="str">
+      <c r="D13" t="str">
+        <v>C.good</v>
+      </c>
+      <c r="E13" t="str">
+        <v>T.good</v>
+      </c>
+      <c r="F13" t="str">
+        <v>4.R.g.1</v>
+      </c>
+      <c r="G13" t="str">
+        <v>4.C.g.1</v>
+      </c>
+      <c r="H13" t="str">
+        <v>4.T.g.1</v>
+      </c>
+      <c r="I13" t="str">
+        <v>4.R.o.1</v>
+      </c>
+      <c r="J13" t="str">
+        <v>4.C.o.1</v>
+      </c>
+      <c r="K13" t="str">
+        <v>4.T.o.1</v>
+      </c>
+      <c r="L13" t="str">
+        <v>4.R.o.1</v>
+      </c>
+      <c r="M13" t="str">
+        <v>4.C.o.1</v>
+      </c>
+      <c r="N13" t="str">
+        <v>4.T.o.1</v>
+      </c>
+      <c r="O13" t="str">
+        <v>4.R.d.1</v>
+      </c>
+      <c r="P13" t="str">
+        <v>4.C.d.1</v>
+      </c>
+      <c r="Q13" t="str">
+        <v>4.T.d.1</v>
+      </c>
+      <c r="R13" t="str">
+        <v>4.R.{Enter}.{Enter}</v>
+      </c>
+      <c r="S13" t="str">
+        <v>4.C.{Enter}.{Enter}</v>
+      </c>
+      <c r="T13" t="str">
+        <v>4.T.{Enter}.{Enter}</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>good</v>
+      </c>
+      <c r="B14" t="str">
+        <v>good</v>
+      </c>
+      <c r="C14" t="str">
         <v/>
       </c>
-      <c r="D6" t="str">
+      <c r="D14" t="str">
         <v>錯</v>
       </c>
-      <c r="E6">
-        <v>1.982</v>
-      </c>
-      <c r="F6" t="str">
-        <v>鄉</v>
-      </c>
-      <c r="G6" t="str">
+      <c r="E14">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>文字</v>
+      </c>
+      <c r="B15" t="str">
+        <v>解答部分</v>
+      </c>
+      <c r="C15" t="str">
+        <v>輸入部分</v>
+      </c>
+      <c r="D15" t="str">
+        <v>C.day</v>
+      </c>
+      <c r="E15" t="str">
+        <v>T.day</v>
+      </c>
+      <c r="F15" t="str">
+        <v>5.R.d.1</v>
+      </c>
+      <c r="G15" t="str">
+        <v>5.C.d.1</v>
+      </c>
+      <c r="H15" t="str">
+        <v>5.T.d.1</v>
+      </c>
+      <c r="I15" t="str">
+        <v>5.R.a.1</v>
+      </c>
+      <c r="J15" t="str">
+        <v>5.C.a.1</v>
+      </c>
+      <c r="K15" t="str">
+        <v>5.T.a.1</v>
+      </c>
+      <c r="L15" t="str">
+        <v>5.R.y.1</v>
+      </c>
+      <c r="M15" t="str">
+        <v>5.C.y.1</v>
+      </c>
+      <c r="N15" t="str">
+        <v>5.T.y.1</v>
+      </c>
+      <c r="O15" t="str">
+        <v>5.R.{Enter}.{Enter}</v>
+      </c>
+      <c r="P15" t="str">
+        <v>5.C.{Enter}.{Enter}</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>5.T.{Enter}.{Enter}</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>day</v>
+      </c>
+      <c r="B16" t="str">
+        <v>day</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
         <v>錯</v>
       </c>
-      <c r="H6">
-        <v>0</v>
+      <c r="E16">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>文字</v>
+      </c>
+      <c r="B17" t="str">
+        <v>解答部分</v>
+      </c>
+      <c r="C17" t="str">
+        <v>輸入部分</v>
+      </c>
+      <c r="D17" t="str">
+        <v>C.to</v>
+      </c>
+      <c r="E17" t="str">
+        <v>T.to</v>
+      </c>
+      <c r="F17" t="str">
+        <v>6.R.t.1</v>
+      </c>
+      <c r="G17" t="str">
+        <v>6.C.t.1</v>
+      </c>
+      <c r="H17" t="str">
+        <v>6.T.t.1</v>
+      </c>
+      <c r="I17" t="str">
+        <v>6.R.o.1</v>
+      </c>
+      <c r="J17" t="str">
+        <v>6.C.o.1</v>
+      </c>
+      <c r="K17" t="str">
+        <v>6.T.o.1</v>
+      </c>
+      <c r="L17" t="str">
+        <v>6.R.{Enter}.{Enter}</v>
+      </c>
+      <c r="M17" t="str">
+        <v>6.C.{Enter}.{Enter}</v>
+      </c>
+      <c r="N17" t="str">
+        <v>6.T.{Enter}.{Enter}</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>to</v>
+      </c>
+      <c r="B18" t="str">
+        <v>to</v>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v>錯</v>
+      </c>
+      <c r="E18">
+        <v>0.142</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>文字</v>
+      </c>
+      <c r="B19" t="str">
+        <v>解答部分</v>
+      </c>
+      <c r="C19" t="str">
+        <v>輸入部分</v>
+      </c>
+      <c r="D19" t="str">
+        <v>C.take</v>
+      </c>
+      <c r="E19" t="str">
+        <v>T.take</v>
+      </c>
+      <c r="F19" t="str">
+        <v>7.R.t.1</v>
+      </c>
+      <c r="G19" t="str">
+        <v>7.C.t.1</v>
+      </c>
+      <c r="H19" t="str">
+        <v>7.T.t.1</v>
+      </c>
+      <c r="I19" t="str">
+        <v>7.R.a.1</v>
+      </c>
+      <c r="J19" t="str">
+        <v>7.C.a.1</v>
+      </c>
+      <c r="K19" t="str">
+        <v>7.T.a.1</v>
+      </c>
+      <c r="L19" t="str">
+        <v>7.R.k.1</v>
+      </c>
+      <c r="M19" t="str">
+        <v>7.C.k.1</v>
+      </c>
+      <c r="N19" t="str">
+        <v>7.T.k.1</v>
+      </c>
+      <c r="O19" t="str">
+        <v>7.R.e.1</v>
+      </c>
+      <c r="P19" t="str">
+        <v>7.C.e.1</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>7.T.e.1</v>
+      </c>
+      <c r="R19" t="str">
+        <v>7.R.{Enter}.{Enter}</v>
+      </c>
+      <c r="S19" t="str">
+        <v>7.C.{Enter}.{Enter}</v>
+      </c>
+      <c r="T19" t="str">
+        <v>7.T.{Enter}.{Enter}</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>take</v>
+      </c>
+      <c r="B20" t="str">
+        <v>take</v>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v>錯</v>
+      </c>
+      <c r="E20">
+        <v>0.134</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>文字</v>
+      </c>
+      <c r="B21" t="str">
+        <v>解答部分</v>
+      </c>
+      <c r="C21" t="str">
+        <v>輸入部分</v>
+      </c>
+      <c r="D21" t="str">
+        <v>C.a</v>
+      </c>
+      <c r="E21" t="str">
+        <v>T.a</v>
+      </c>
+      <c r="F21" t="str">
+        <v>8.R.a.1</v>
+      </c>
+      <c r="G21" t="str">
+        <v>8.C.a.1</v>
+      </c>
+      <c r="H21" t="str">
+        <v>8.T.a.1</v>
+      </c>
+      <c r="I21" t="str">
+        <v>8.R.{Enter}.{Enter}</v>
+      </c>
+      <c r="J21" t="str">
+        <v>8.C.{Enter}.{Enter}</v>
+      </c>
+      <c r="K21" t="str">
+        <v>8.T.{Enter}.{Enter}</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>a</v>
+      </c>
+      <c r="B22" t="str">
+        <v>a</v>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v>錯</v>
+      </c>
+      <c r="E22">
+        <v>0.135</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>文字</v>
+      </c>
+      <c r="B23" t="str">
+        <v>解答部分</v>
+      </c>
+      <c r="C23" t="str">
+        <v>輸入部分</v>
+      </c>
+      <c r="D23" t="str">
+        <v>C.trip.</v>
+      </c>
+      <c r="E23" t="str">
+        <v>T.trip.</v>
+      </c>
+      <c r="F23" t="str">
+        <v>9.R.t.1</v>
+      </c>
+      <c r="G23" t="str">
+        <v>9.C.t.1</v>
+      </c>
+      <c r="H23" t="str">
+        <v>9.T.t.1</v>
+      </c>
+      <c r="I23" t="str">
+        <v>9.R.r.1</v>
+      </c>
+      <c r="J23" t="str">
+        <v>9.C.r.1</v>
+      </c>
+      <c r="K23" t="str">
+        <v>9.T.r.1</v>
+      </c>
+      <c r="L23" t="str">
+        <v>9.R.i.1</v>
+      </c>
+      <c r="M23" t="str">
+        <v>9.C.i.1</v>
+      </c>
+      <c r="N23" t="str">
+        <v>9.T.i.1</v>
+      </c>
+      <c r="O23" t="str">
+        <v>9.R.p.1</v>
+      </c>
+      <c r="P23" t="str">
+        <v>9.C.p.1</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>9.T.p.1</v>
+      </c>
+      <c r="R23" t="str">
+        <v>9.R...1</v>
+      </c>
+      <c r="S23" t="str">
+        <v>9.C...1</v>
+      </c>
+      <c r="T23" t="str">
+        <v>9.T...1</v>
+      </c>
+      <c r="U23" t="str">
+        <v>9.R.{Enter}.{Enter}</v>
+      </c>
+      <c r="V23" t="str">
+        <v>9.C.{Enter}.{Enter}</v>
+      </c>
+      <c r="W23" t="str">
+        <v>9.T.{Enter}.{Enter}</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>trip.</v>
+      </c>
+      <c r="B24" t="str">
+        <v>trip.</v>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v>錯</v>
+      </c>
+      <c r="E24">
+        <v>0.142</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Y6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W24"/>
   </ignoredErrors>
 </worksheet>
 </file>